--- a/Jogos_do_Dia/2023-01-17_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-17_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="G2" t="n">
-        <v>3.58</v>
+        <v>3.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.76</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
         <v>1.02</v>
@@ -653,10 +653,10 @@
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="N2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
@@ -704,10 +704,10 @@
         <v>2.63</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF2" t="n">
         <v>1.65</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="G3" t="n">
-        <v>3.41</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
         <v>1.03</v>
@@ -763,7 +763,7 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="N3" t="n">
         <v>2</v>
@@ -814,10 +814,10 @@
         <v>2.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF3" t="n">
         <v>1.65</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.76</v>
+        <v>3.8</v>
       </c>
       <c r="G4" t="n">
-        <v>3.58</v>
+        <v>3.7</v>
       </c>
       <c r="H4" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="I4" t="n">
         <v>1.02</v>
@@ -873,10 +873,10 @@
         <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="N4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O4" t="n">
         <v>1.31</v>
@@ -924,10 +924,10 @@
         <v>1.57</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF4" t="n">
         <v>1.65</v>

--- a/Jogos_do_Dia/2023-01-17_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-17_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,10 +632,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="G2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H2" t="n">
         <v>3.9</v>
@@ -653,10 +653,10 @@
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="N2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H3" t="n">
         <v>3.5</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.25</v>
       </c>
       <c r="I3" t="n">
         <v>1.03</v>
@@ -763,10 +763,10 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.34</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="G4" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="I4" t="n">
         <v>1.02</v>
@@ -873,10 +873,10 @@
         <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="N4" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="O4" t="n">
         <v>1.31</v>
